--- a/Data/Raw Data/eip_implementation.xlsx
+++ b/Data/Raw Data/eip_implementation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moazz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khojama\Box\Fintech Research Lab\Ethereum Governance Project\Ethereum Project Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CC1D6-90EB-45DA-B47A-3A40A6D2B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E456E-8CAA-4A5B-8724-C2011E84B4D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AD9DDF8-364E-8043-A3A4-25970948F376}"/>
   </bookViews>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="24">
   <si>
     <t>Core</t>
   </si>
@@ -106,6 +95,9 @@
   </si>
   <si>
     <t>eip_number</t>
+  </si>
+  <si>
+    <t>Cesare</t>
   </si>
 </sst>
 </file>
@@ -459,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A302DEBE-F78B-A843-9953-075928FC1573}">
   <dimension ref="A1:D690"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="str">
         <f>VLOOKUP(A237,'Fork Data'!A:B,2,FALSE)</f>
@@ -4030,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="e">
         <f>VLOOKUP(A238,'Fork Data'!A:B,2,FALSE)</f>
@@ -4045,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="e">
         <f>VLOOKUP(A239,'Fork Data'!A:B,2,FALSE)</f>
@@ -4060,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="e">
         <f>VLOOKUP(A240,'Fork Data'!A:B,2,FALSE)</f>
@@ -4075,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="e">
         <f>VLOOKUP(A241,'Fork Data'!A:B,2,FALSE)</f>
@@ -4090,11 +4082,10 @@
         <v>3</v>
       </c>
       <c r="C242">
-        <v>0</v>
-      </c>
-      <c r="D242" t="e">
-        <f>VLOOKUP(A242,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,11 +4096,10 @@
         <v>3</v>
       </c>
       <c r="C243">
-        <v>0</v>
-      </c>
-      <c r="D243" t="e">
-        <f>VLOOKUP(A243,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4120,11 +4110,10 @@
         <v>3</v>
       </c>
       <c r="C244">
-        <v>0</v>
-      </c>
-      <c r="D244" t="e">
-        <f>VLOOKUP(A244,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4135,11 +4124,10 @@
         <v>3</v>
       </c>
       <c r="C245">
-        <v>0</v>
-      </c>
-      <c r="D245" t="e">
-        <f>VLOOKUP(A245,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,11 +4138,10 @@
         <v>3</v>
       </c>
       <c r="C246">
-        <v>0</v>
-      </c>
-      <c r="D246" t="e">
-        <f>VLOOKUP(A246,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,11 +4152,10 @@
         <v>3</v>
       </c>
       <c r="C247">
-        <v>0</v>
-      </c>
-      <c r="D247" t="e">
-        <f>VLOOKUP(A247,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="e">
         <f>VLOOKUP(A248,'Fork Data'!A:B,2,FALSE)</f>
@@ -4195,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="e">
         <f>VLOOKUP(A249,'Fork Data'!A:B,2,FALSE)</f>
@@ -4227,9 +4213,8 @@
       <c r="C251">
         <v>0</v>
       </c>
-      <c r="D251" t="e">
-        <f>VLOOKUP(A251,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D251" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -10827,7 +10812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDAC0F7-BAF0-D742-B7AD-3BE3ED5EF224}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Data/Raw Data/eip_implementation.xlsx
+++ b/Data/Raw Data/eip_implementation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khojama\Box\Fintech Research Lab\Ethereum Governance Project\Ethereum Project Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moazz\Box\Fintech Research Lab\Ethereum_Governance_Project\Data\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E456E-8CAA-4A5B-8724-C2011E84B4D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD01C3-1317-4C92-AE3D-C4434E049CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AD9DDF8-364E-8043-A3A4-25970948F376}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="24">
   <si>
     <t>Core</t>
   </si>
@@ -451,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A302DEBE-F78B-A843-9953-075928FC1573}">
   <dimension ref="A1:D690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="e">
         <f>VLOOKUP(A7,'Fork Data'!A:B,2,FALSE)</f>
@@ -767,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="e">
         <f>VLOOKUP(A21,'Fork Data'!A:B,2,FALSE)</f>
@@ -814,9 +825,8 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="e">
-        <f>VLOOKUP(A24,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,9 +989,8 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="e">
-        <f>VLOOKUP(A35,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,9 +1018,8 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="e">
-        <f>VLOOKUP(A37,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,9 +1137,8 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="e">
-        <f>VLOOKUP(A45,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D45" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,9 +1211,8 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" t="e">
-        <f>VLOOKUP(A50,'Fork Data'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D50" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
